--- a/xlsx/Craigslist_intext.xlsx
+++ b/xlsx/Craigslist_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Craigslist</t>
   </si>
@@ -29,43 +29,40 @@
     <t>私营</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Craigslist</t>
+    <t>政策_政策_维基百科_Craigslist</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>三藩市灣區</t>
+    <t>三藩市湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%A1%9E%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>分類廣告</t>
+    <t>分类广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -666,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -692,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -721,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -750,10 +747,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -779,10 +776,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -808,10 +805,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
